--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2752,28 +2752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.0054847153842</v>
+        <v>145.2260937421481</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.5650425727382</v>
+        <v>198.7047483809964</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.7637472816386</v>
+        <v>179.7406460794364</v>
       </c>
       <c r="AD2" t="n">
-        <v>121005.4847153842</v>
+        <v>145226.0937421481</v>
       </c>
       <c r="AE2" t="n">
-        <v>165565.0425727382</v>
+        <v>198704.7483809965</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.444970127793143e-06</v>
+        <v>8.224358493734536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.41796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>149763.7472816386</v>
+        <v>179740.6460794364</v>
       </c>
     </row>
     <row r="3">
@@ -2858,28 +2858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.02928787241196</v>
+        <v>84.13963714006937</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.55364937490536</v>
+        <v>115.1235635138087</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.14782739950454</v>
+        <v>104.1363321890167</v>
       </c>
       <c r="AD3" t="n">
-        <v>72029.28787241195</v>
+        <v>84139.63714006938</v>
       </c>
       <c r="AE3" t="n">
-        <v>98553.64937490536</v>
+        <v>115123.5635138087</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.63515054406292e-06</v>
+        <v>1.227676568466936e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.2900390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>89147.82739950453</v>
+        <v>104136.3321890167</v>
       </c>
     </row>
     <row r="4">
@@ -2964,28 +2964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.54422727220792</v>
+        <v>77.65457653986535</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.68050336102897</v>
+        <v>106.2504174999323</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.12152198765101</v>
+        <v>96.11002677716324</v>
       </c>
       <c r="AD4" t="n">
-        <v>65544.22727220792</v>
+        <v>77654.57653986535</v>
       </c>
       <c r="AE4" t="n">
-        <v>89680.50336102897</v>
+        <v>106250.4174999323</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.406447347661036e-06</v>
+        <v>1.370386670795832e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.052408854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>81121.52198765101</v>
+        <v>96110.02677716324</v>
       </c>
     </row>
     <row r="5">
@@ -3070,28 +3070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.2284173947489</v>
+        <v>62.42401800842692</v>
       </c>
       <c r="AB5" t="n">
-        <v>68.72473660085578</v>
+        <v>85.41129539240832</v>
       </c>
       <c r="AC5" t="n">
-        <v>62.16574419545872</v>
+        <v>77.25976123568317</v>
       </c>
       <c r="AD5" t="n">
-        <v>50228.4173947489</v>
+        <v>62424.01800842692</v>
       </c>
       <c r="AE5" t="n">
-        <v>68724.73660085577</v>
+        <v>85411.29539240833</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.801105571702829e-06</v>
+        <v>1.443408774965333e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.9482421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>62165.74419545872</v>
+        <v>77259.76123568317</v>
       </c>
     </row>
     <row r="6">
@@ -3176,28 +3176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>48.20584117558008</v>
+        <v>60.40144178925808</v>
       </c>
       <c r="AB6" t="n">
-        <v>65.95735858802509</v>
+        <v>82.64391737957766</v>
       </c>
       <c r="AC6" t="n">
-        <v>59.66248085613228</v>
+        <v>74.75649789635672</v>
       </c>
       <c r="AD6" t="n">
-        <v>48205.84117558008</v>
+        <v>60401.44178925808</v>
       </c>
       <c r="AE6" t="n">
-        <v>65957.35858802509</v>
+        <v>82643.91737957766</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.057488699977908e-06</v>
+        <v>1.490846366176463e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.886393229166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>59662.48085613229</v>
+        <v>74756.49789635673</v>
       </c>
     </row>
     <row r="7">
@@ -3282,28 +3282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>46.65416817835282</v>
+        <v>58.84976879203084</v>
       </c>
       <c r="AB7" t="n">
-        <v>63.8342911382385</v>
+        <v>80.52084992979105</v>
       </c>
       <c r="AC7" t="n">
-        <v>57.74203598400877</v>
+        <v>72.83605302423322</v>
       </c>
       <c r="AD7" t="n">
-        <v>46654.16817835282</v>
+        <v>58849.76879203084</v>
       </c>
       <c r="AE7" t="n">
-        <v>63834.2911382385</v>
+        <v>80520.84992979106</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.217611447607828e-06</v>
+        <v>1.520473266732577e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.848958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>57742.03598400876</v>
+        <v>72836.05302423322</v>
       </c>
     </row>
     <row r="8">
@@ -3388,28 +3388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>45.68016742447627</v>
+        <v>57.87576803815428</v>
       </c>
       <c r="AB8" t="n">
-        <v>62.50162033690467</v>
+        <v>79.18817912845724</v>
       </c>
       <c r="AC8" t="n">
-        <v>56.5365534135386</v>
+        <v>71.63057045376304</v>
       </c>
       <c r="AD8" t="n">
-        <v>45680.16742447627</v>
+        <v>57875.76803815428</v>
       </c>
       <c r="AE8" t="n">
-        <v>62501.62033690467</v>
+        <v>79188.17912845724</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.332731767040882e-06</v>
+        <v>1.541773539843766e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.822916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>56536.5534135386</v>
+        <v>71630.57045376304</v>
       </c>
     </row>
     <row r="9">
@@ -3494,28 +3494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>45.7805420312824</v>
+        <v>57.97614264496041</v>
       </c>
       <c r="AB9" t="n">
-        <v>62.63895730215187</v>
+        <v>79.32551609370444</v>
       </c>
       <c r="AC9" t="n">
-        <v>56.66078313157629</v>
+        <v>71.75480017180074</v>
       </c>
       <c r="AD9" t="n">
-        <v>45780.5420312824</v>
+        <v>57976.14264496041</v>
       </c>
       <c r="AE9" t="n">
-        <v>62638.95730215187</v>
+        <v>79325.51609370444</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.328810393629539e-06</v>
+        <v>1.541047983095453e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>2</v>
+        <v>1.824544270833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>56660.78313157629</v>
+        <v>71754.80017180074</v>
       </c>
     </row>
   </sheetData>
@@ -3791,28 +3791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.09222329901004</v>
+        <v>108.5343067098726</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.426933921606</v>
+        <v>148.5014266360625</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.3153107543861</v>
+        <v>134.3286589010184</v>
       </c>
       <c r="AD2" t="n">
-        <v>85092.22329901005</v>
+        <v>108534.3067098726</v>
       </c>
       <c r="AE2" t="n">
-        <v>116426.933921606</v>
+        <v>148501.4266360625</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.414989402466282e-06</v>
+        <v>1.032180550940375e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.903645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>105315.3107543861</v>
+        <v>134328.6589010184</v>
       </c>
     </row>
     <row r="3">
@@ -3897,28 +3897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.17725016200654</v>
+        <v>74.85571094870302</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.4419008551928</v>
+        <v>102.4208861208706</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.19200715956366</v>
+        <v>92.64598049813695</v>
       </c>
       <c r="AD3" t="n">
-        <v>63177.25016200654</v>
+        <v>74855.71094870302</v>
       </c>
       <c r="AE3" t="n">
-        <v>86441.9008551928</v>
+        <v>102420.8861208706</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.450343135310387e-06</v>
+        <v>1.420150384522826e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>78192.00715956365</v>
+        <v>92645.98049813695</v>
       </c>
     </row>
     <row r="4">
@@ -4003,28 +4003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.62995042225832</v>
+        <v>58.39366255497539</v>
       </c>
       <c r="AB4" t="n">
-        <v>63.80115533593802</v>
+        <v>79.8967852542651</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.71206261617343</v>
+        <v>72.27154820545897</v>
       </c>
       <c r="AD4" t="n">
-        <v>46629.95042225832</v>
+        <v>58393.6625549754</v>
       </c>
       <c r="AE4" t="n">
-        <v>63801.15533593802</v>
+        <v>79896.78525426509</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.144988608029734e-06</v>
+        <v>1.552560532253333e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.930338541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>57712.06261617343</v>
+        <v>72271.54820545897</v>
       </c>
     </row>
     <row r="5">
@@ -4109,28 +4109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>44.1175083682154</v>
+        <v>55.88122050093249</v>
       </c>
       <c r="AB5" t="n">
-        <v>60.36352127647758</v>
+        <v>76.45915119480463</v>
       </c>
       <c r="AC5" t="n">
-        <v>54.6025115265971</v>
+        <v>69.16199711588264</v>
       </c>
       <c r="AD5" t="n">
-        <v>44117.5083682154</v>
+        <v>55881.22050093248</v>
       </c>
       <c r="AE5" t="n">
-        <v>60363.52127647758</v>
+        <v>76459.15119480464</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.510179727655965e-06</v>
+        <v>1.622171595736238e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.847330729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>54602.5115265971</v>
+        <v>69161.99711588264</v>
       </c>
     </row>
     <row r="6">
@@ -4215,28 +4215,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>42.84544548911224</v>
+        <v>54.60915762182932</v>
       </c>
       <c r="AB6" t="n">
-        <v>58.623028725836</v>
+        <v>74.71865864416307</v>
       </c>
       <c r="AC6" t="n">
-        <v>53.02812914219157</v>
+        <v>67.58761473147709</v>
       </c>
       <c r="AD6" t="n">
-        <v>42845.44548911224</v>
+        <v>54609.15762182932</v>
       </c>
       <c r="AE6" t="n">
-        <v>58623.028725836</v>
+        <v>74718.65864416306</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.651195076678526e-06</v>
+        <v>1.649051297583644e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.81640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>53028.12914219157</v>
+        <v>67587.61473147709</v>
       </c>
     </row>
     <row r="7">
@@ -4321,28 +4321,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>42.67092838506123</v>
+        <v>54.43464051777831</v>
       </c>
       <c r="AB7" t="n">
-        <v>58.38424672492228</v>
+        <v>74.47987664324933</v>
       </c>
       <c r="AC7" t="n">
-        <v>52.81213616031232</v>
+        <v>67.37162174959786</v>
       </c>
       <c r="AD7" t="n">
-        <v>42670.92838506123</v>
+        <v>54434.64051777831</v>
       </c>
       <c r="AE7" t="n">
-        <v>58384.24672492228</v>
+        <v>74479.87664324933</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.71513491301615e-06</v>
+        <v>1.661239217188426e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.803385416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>52812.13616031232</v>
+        <v>67371.62174959786</v>
       </c>
     </row>
   </sheetData>
@@ -4618,28 +4618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.10707794825979</v>
+        <v>60.48526909342995</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.55871461705087</v>
+        <v>82.75861359534522</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.01556711677478</v>
+        <v>74.86024766626861</v>
       </c>
       <c r="AD2" t="n">
-        <v>50107.07794825979</v>
+        <v>60485.26909342995</v>
       </c>
       <c r="AE2" t="n">
-        <v>68558.71461705086</v>
+        <v>82758.61359534522</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.578733697295801e-06</v>
+        <v>1.827045769545916e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.044270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>62015.56711677478</v>
+        <v>74860.24766626861</v>
       </c>
     </row>
     <row r="3">
@@ -4724,28 +4724,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.72083305179343</v>
+        <v>46.18427554298665</v>
       </c>
       <c r="AB3" t="n">
-        <v>48.87481967325747</v>
+        <v>63.19136330433082</v>
       </c>
       <c r="AC3" t="n">
-        <v>44.21027547997041</v>
+        <v>57.16046828021415</v>
       </c>
       <c r="AD3" t="n">
-        <v>35720.83305179344</v>
+        <v>46184.27554298665</v>
       </c>
       <c r="AE3" t="n">
-        <v>48874.81967325747</v>
+        <v>63191.36330433082</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.47294904801395e-06</v>
+        <v>2.017490237370767e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.852213541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>44210.27547997041</v>
+        <v>57160.46828021415</v>
       </c>
     </row>
   </sheetData>
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.2930302797029</v>
+        <v>71.17957497988252</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.49558396942608</v>
+        <v>97.39103470866004</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.62232121868274</v>
+        <v>88.09617104526536</v>
       </c>
       <c r="AD2" t="n">
-        <v>60293.03027970291</v>
+        <v>71179.57497988251</v>
       </c>
       <c r="AE2" t="n">
-        <v>82495.58396942608</v>
+        <v>97391.03470866004</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.28637209303317e-06</v>
+        <v>1.479385447839286e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.303059895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>74622.32121868274</v>
+        <v>88096.17104526536</v>
       </c>
     </row>
     <row r="3">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.63813634452492</v>
+        <v>50.60993239072819</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.23464685757103</v>
+        <v>69.2467422496081</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.05856828039374</v>
+        <v>62.6379303577338</v>
       </c>
       <c r="AD3" t="n">
-        <v>39638.13634452492</v>
+        <v>50609.93239072819</v>
       </c>
       <c r="AE3" t="n">
-        <v>54234.64685757103</v>
+        <v>69246.7422496081</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.966169092278896e-06</v>
+        <v>1.820442314587049e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.871744791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>49058.56828039374</v>
+        <v>62637.9303577338</v>
       </c>
     </row>
     <row r="4">
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.06840229790667</v>
+        <v>49.0401983441097</v>
       </c>
       <c r="AB4" t="n">
-        <v>52.08686748321974</v>
+        <v>67.09896287524715</v>
       </c>
       <c r="AC4" t="n">
-        <v>47.11576995509686</v>
+        <v>60.6951320324339</v>
       </c>
       <c r="AD4" t="n">
-        <v>38068.40229790666</v>
+        <v>49040.1983441097</v>
       </c>
       <c r="AE4" t="n">
-        <v>52086.86748321974</v>
+        <v>67098.96287524715</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.290642524431259e-06</v>
+        <v>1.886321639387884e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.806640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>47115.76995509686</v>
+        <v>60695.1320324339</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.78408355151348</v>
+        <v>43.83057184850899</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.22487356362957</v>
+        <v>59.97092207146963</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.81323650781479</v>
+        <v>54.24738143869853</v>
       </c>
       <c r="AD2" t="n">
-        <v>33784.08355151347</v>
+        <v>43830.57184850899</v>
       </c>
       <c r="AE2" t="n">
-        <v>46224.87356362958</v>
+        <v>59970.92207146963</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.551791231317767e-06</v>
+        <v>2.126997337768161e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.907552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>41813.23650781479</v>
+        <v>54247.38143869853</v>
       </c>
     </row>
     <row r="3">
@@ -5636,28 +5636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.85852673953713</v>
+        <v>43.90501503653265</v>
       </c>
       <c r="AB3" t="n">
-        <v>46.32673001768472</v>
+        <v>60.07277852552522</v>
       </c>
       <c r="AC3" t="n">
-        <v>41.90537192485164</v>
+        <v>54.33951685573552</v>
       </c>
       <c r="AD3" t="n">
-        <v>33858.52673953713</v>
+        <v>43905.01503653266</v>
       </c>
       <c r="AE3" t="n">
-        <v>46326.73001768472</v>
+        <v>60072.77852552522</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.566342674588576e-06</v>
+        <v>2.130237659959899e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.904296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>41905.37192485164</v>
+        <v>54339.51685573552</v>
       </c>
     </row>
   </sheetData>
@@ -5933,28 +5933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.5465472935354</v>
+        <v>114.4238671296781</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.3087100413322</v>
+        <v>156.5597830315044</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.9178436795366</v>
+        <v>141.6179370720561</v>
       </c>
       <c r="AD2" t="n">
-        <v>102546.5472935354</v>
+        <v>114423.8671296781</v>
       </c>
       <c r="AE2" t="n">
-        <v>140308.7100413322</v>
+        <v>156559.7830315044</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.14274915197101e-06</v>
+        <v>9.723723253387644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.028971354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>126917.8436795366</v>
+        <v>141617.9370720561</v>
       </c>
     </row>
     <row r="3">
@@ -6039,28 +6039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.32000605328095</v>
+        <v>77.11198503485205</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.37371399735117</v>
+        <v>105.5080198653257</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.84401217026097</v>
+        <v>95.43848253084163</v>
       </c>
       <c r="AD3" t="n">
-        <v>65320.00605328094</v>
+        <v>77111.98503485206</v>
       </c>
       <c r="AE3" t="n">
-        <v>89373.71399735118</v>
+        <v>105508.0198653257</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.232852459044397e-06</v>
+        <v>1.367561465007043e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.1533203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>80844.01217026096</v>
+        <v>95438.48253084162</v>
       </c>
     </row>
     <row r="4">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.51225433255143</v>
+        <v>60.3894846601431</v>
       </c>
       <c r="AB4" t="n">
-        <v>66.37660658738751</v>
+        <v>82.62755710801126</v>
       </c>
       <c r="AC4" t="n">
-        <v>60.04171641485394</v>
+        <v>74.74169902614683</v>
       </c>
       <c r="AD4" t="n">
-        <v>48512.25433255143</v>
+        <v>60389.48466014311</v>
       </c>
       <c r="AE4" t="n">
-        <v>66376.60658738752</v>
+        <v>82627.55710801126</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.911686158154329e-06</v>
+        <v>1.495912874538433e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.969401041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>60041.71641485395</v>
+        <v>74741.69902614683</v>
       </c>
     </row>
     <row r="5">
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>45.7779154648011</v>
+        <v>57.65514579239278</v>
       </c>
       <c r="AB5" t="n">
-        <v>62.63536351801623</v>
+        <v>78.88631403863998</v>
       </c>
       <c r="AC5" t="n">
-        <v>56.65753233315464</v>
+        <v>71.35751494444753</v>
       </c>
       <c r="AD5" t="n">
-        <v>45777.9154648011</v>
+        <v>57655.14579239278</v>
       </c>
       <c r="AE5" t="n">
-        <v>62635.36351801623</v>
+        <v>78886.31403863998</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.318488642815525e-06</v>
+        <v>1.572829610368721e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.873372395833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>56657.53233315464</v>
+        <v>71357.51494444752</v>
       </c>
     </row>
     <row r="6">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>43.56225217339348</v>
+        <v>55.43948250098516</v>
       </c>
       <c r="AB6" t="n">
-        <v>59.60379525454815</v>
+        <v>75.85474577517189</v>
       </c>
       <c r="AC6" t="n">
-        <v>53.9152926899182</v>
+        <v>68.61527530121108</v>
       </c>
       <c r="AD6" t="n">
-        <v>43562.25217339348</v>
+        <v>55439.48250098516</v>
       </c>
       <c r="AE6" t="n">
-        <v>59603.79525454815</v>
+        <v>75854.74577517189</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.58994554787415e-06</v>
+        <v>1.624155695736886e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.813151041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>53915.2926899182</v>
+        <v>68615.27530121109</v>
       </c>
     </row>
     <row r="7">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>43.60003311554321</v>
+        <v>55.47726344313489</v>
       </c>
       <c r="AB7" t="n">
-        <v>59.65548880637491</v>
+        <v>75.90643932699865</v>
       </c>
       <c r="AC7" t="n">
-        <v>53.96205268171099</v>
+        <v>68.66203529300388</v>
       </c>
       <c r="AD7" t="n">
-        <v>43600.03311554321</v>
+        <v>55477.26344313489</v>
       </c>
       <c r="AE7" t="n">
-        <v>59655.48880637491</v>
+        <v>75906.43932699865</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.568791818671769e-06</v>
+        <v>1.620156025473711e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.818033854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>53962.05268171099</v>
+        <v>68662.03529300388</v>
       </c>
     </row>
   </sheetData>
@@ -6760,28 +6760,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.76213561507962</v>
+        <v>42.56172459988026</v>
       </c>
       <c r="AB2" t="n">
-        <v>44.82659931184654</v>
+        <v>58.23482928830676</v>
       </c>
       <c r="AC2" t="n">
-        <v>40.54841158812754</v>
+        <v>52.67697891413866</v>
       </c>
       <c r="AD2" t="n">
-        <v>32762.13561507962</v>
+        <v>42561.72459988026</v>
       </c>
       <c r="AE2" t="n">
-        <v>44826.59931184654</v>
+        <v>58234.82928830676</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.488178110795591e-06</v>
+        <v>2.175228163766035e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.964518229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>40548.41158812754</v>
+        <v>52676.97891413866</v>
       </c>
     </row>
   </sheetData>
@@ -7057,28 +7057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.49850927495103</v>
+        <v>82.97914079617951</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.82741468156064</v>
+        <v>113.535721218614</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.49090352601561</v>
+        <v>102.7000313339243</v>
       </c>
       <c r="AD2" t="n">
-        <v>71498.50927495104</v>
+        <v>82979.1407961795</v>
       </c>
       <c r="AE2" t="n">
-        <v>97827.41468156064</v>
+        <v>113535.721218614</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.277004236270077e-06</v>
+        <v>1.230284155530395e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.579752604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>88490.90352601561</v>
+        <v>102700.0313339243</v>
       </c>
     </row>
     <row r="3">
@@ -7163,28 +7163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.66305616427102</v>
+        <v>68.28295578844146</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.47820795579633</v>
+        <v>93.42775254111258</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.51537547722373</v>
+        <v>84.51113896528591</v>
       </c>
       <c r="AD3" t="n">
-        <v>45663.05616427102</v>
+        <v>68282.95578844145</v>
       </c>
       <c r="AE3" t="n">
-        <v>62478.20795579633</v>
+        <v>93427.75254111258</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.11322476304934e-06</v>
+        <v>1.590180841134448e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.9970703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>56515.37547722374</v>
+        <v>84511.13896528591</v>
       </c>
     </row>
     <row r="4">
@@ -7269,28 +7269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.75997502726581</v>
+        <v>53.15526569392606</v>
       </c>
       <c r="AB4" t="n">
-        <v>57.13784015219918</v>
+        <v>72.72937956722183</v>
       </c>
       <c r="AC4" t="n">
-        <v>51.6846848816486</v>
+        <v>65.78818965766777</v>
       </c>
       <c r="AD4" t="n">
-        <v>41759.97502726581</v>
+        <v>53155.26569392606</v>
       </c>
       <c r="AE4" t="n">
-        <v>57137.84015219918</v>
+        <v>72729.37956722183</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.780561358138312e-06</v>
+        <v>1.720977891517105e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.844075520833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>51684.6848816486</v>
+        <v>65788.18965766777</v>
       </c>
     </row>
     <row r="5">
@@ -7375,28 +7375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>40.46767369247749</v>
+        <v>51.86296435913754</v>
       </c>
       <c r="AB5" t="n">
-        <v>55.36965645363919</v>
+        <v>70.96119586865389</v>
       </c>
       <c r="AC5" t="n">
-        <v>50.0852541536125</v>
+        <v>64.18875892962919</v>
       </c>
       <c r="AD5" t="n">
-        <v>40467.67369247749</v>
+        <v>51862.96435913754</v>
       </c>
       <c r="AE5" t="n">
-        <v>55369.6564536392</v>
+        <v>70961.19586865389</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.979090512209667e-06</v>
+        <v>1.759889331349106e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.803385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>50085.25415361251</v>
+        <v>64188.75892962918</v>
       </c>
     </row>
   </sheetData>
@@ -7672,28 +7672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.40165485781804</v>
+        <v>103.6080685352553</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.0090912470953</v>
+        <v>141.7611302352647</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.50997797722998</v>
+        <v>128.2316469286451</v>
       </c>
       <c r="AD2" t="n">
-        <v>80401.65485781805</v>
+        <v>103608.0685352553</v>
       </c>
       <c r="AE2" t="n">
-        <v>110009.0912470953</v>
+        <v>141761.1302352647</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.677517748886553e-06</v>
+        <v>1.091618086956678e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.794596354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>99509.97797722998</v>
+        <v>128231.6469286451</v>
       </c>
     </row>
     <row r="3">
@@ -7778,28 +7778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.17773334188908</v>
+        <v>72.73835926187292</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.70607372945307</v>
+        <v>99.52383213198731</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.71728353494618</v>
+        <v>90.02541727591094</v>
       </c>
       <c r="AD3" t="n">
-        <v>61177.73334188908</v>
+        <v>72738.35926187292</v>
       </c>
       <c r="AE3" t="n">
-        <v>83706.07372945307</v>
+        <v>99523.83213198731</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.659954178678605e-06</v>
+        <v>1.472781750148613e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.071940104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>75717.28353494618</v>
+        <v>90025.41727591094</v>
       </c>
     </row>
     <row r="4">
@@ -7884,28 +7884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.0949807152949</v>
+        <v>56.74085798129931</v>
       </c>
       <c r="AB4" t="n">
-        <v>61.70094206478755</v>
+        <v>77.63534511997102</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.81229075195307</v>
+        <v>70.22593674363004</v>
       </c>
       <c r="AD4" t="n">
-        <v>45094.9807152949</v>
+        <v>56740.85798129931</v>
       </c>
       <c r="AE4" t="n">
-        <v>61700.94206478755</v>
+        <v>77635.34511997103</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.341112003709459e-06</v>
+        <v>1.603748175048222e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.902669270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>55812.29075195307</v>
+        <v>70225.93674363004</v>
       </c>
     </row>
     <row r="5">
@@ -7990,28 +7990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>42.56809602525577</v>
+        <v>54.21397329126019</v>
       </c>
       <c r="AB5" t="n">
-        <v>58.24354695359297</v>
+        <v>74.17795000877645</v>
       </c>
       <c r="AC5" t="n">
-        <v>52.68486457768528</v>
+        <v>67.09851056936226</v>
       </c>
       <c r="AD5" t="n">
-        <v>42568.09602525577</v>
+        <v>54213.97329126019</v>
       </c>
       <c r="AE5" t="n">
-        <v>58243.54695359297</v>
+        <v>74177.95000877645</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.6974864455199e-06</v>
+        <v>1.672268398782558e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.824544270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>52684.86457768528</v>
+        <v>67098.51056936226</v>
       </c>
     </row>
     <row r="6">
@@ -8096,28 +8096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>42.04723194603648</v>
+        <v>53.69310921204435</v>
       </c>
       <c r="AB6" t="n">
-        <v>57.53087774134014</v>
+        <v>73.46528079669228</v>
       </c>
       <c r="AC6" t="n">
-        <v>52.04021151491484</v>
+        <v>66.45385750664165</v>
       </c>
       <c r="AD6" t="n">
-        <v>42047.23194603647</v>
+        <v>53693.10921204435</v>
       </c>
       <c r="AE6" t="n">
-        <v>57530.87774134014</v>
+        <v>73465.28079669228</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.782996810900957e-06</v>
+        <v>1.688709503082152e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.806640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>52040.21151491484</v>
+        <v>66453.85750664165</v>
       </c>
     </row>
   </sheetData>
@@ -8393,28 +8393,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.4962127790188</v>
+        <v>126.5891577269392</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.6587695405969</v>
+        <v>173.2048703214118</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.7074764476494</v>
+        <v>156.6744405925467</v>
       </c>
       <c r="AD2" t="n">
-        <v>114496.2127790188</v>
+        <v>126589.1577269392</v>
       </c>
       <c r="AE2" t="n">
-        <v>156658.769540597</v>
+        <v>173204.8703214118</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.662140320137985e-06</v>
+        <v>8.685213809744499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.2861328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>141707.4764476494</v>
+        <v>156674.4405925467</v>
       </c>
     </row>
     <row r="3">
@@ -8499,28 +8499,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.71350270229063</v>
+        <v>81.72110679563944</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.38508993991572</v>
+        <v>111.8144235985329</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.28167082988818</v>
+        <v>101.1430119428468</v>
       </c>
       <c r="AD3" t="n">
-        <v>69713.50270229063</v>
+        <v>81721.10679563944</v>
       </c>
       <c r="AE3" t="n">
-        <v>95385.08993991572</v>
+        <v>111814.4235985329</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.829737232678218e-06</v>
+        <v>1.272328245333195e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.242838541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>86281.67082988819</v>
+        <v>101143.0119428468</v>
       </c>
     </row>
     <row r="4">
@@ -8605,28 +8605,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.7029707833344</v>
+        <v>75.7105748766832</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.16121500245015</v>
+        <v>103.5905486610673</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.84267097417073</v>
+        <v>93.70401208712929</v>
       </c>
       <c r="AD4" t="n">
-        <v>63702.9707833344</v>
+        <v>75710.5748766832</v>
       </c>
       <c r="AE4" t="n">
-        <v>87161.21500245015</v>
+        <v>103590.5486610673</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.586306856675741e-06</v>
+        <v>1.413271427973867e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.019856770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>78842.67097417073</v>
+        <v>93704.01208712929</v>
       </c>
     </row>
     <row r="5">
@@ -8711,28 +8711,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>48.80867631155772</v>
+        <v>60.90153175092711</v>
       </c>
       <c r="AB5" t="n">
-        <v>66.78218421627851</v>
+        <v>83.3281625275449</v>
       </c>
       <c r="AC5" t="n">
-        <v>60.40858628407548</v>
+        <v>75.37543964774629</v>
       </c>
       <c r="AD5" t="n">
-        <v>48808.67631155772</v>
+        <v>60901.53175092711</v>
       </c>
       <c r="AE5" t="n">
-        <v>66782.1842162785</v>
+        <v>83328.1625275449</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.960121329435805e-06</v>
+        <v>1.482910228999958e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.923828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>60408.58628407549</v>
+        <v>75375.43964774629</v>
       </c>
     </row>
     <row r="6">
@@ -8817,28 +8817,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>46.78085716690775</v>
+        <v>58.87371260627713</v>
       </c>
       <c r="AB6" t="n">
-        <v>64.00763260150299</v>
+        <v>80.55361091276939</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.89883398130561</v>
+        <v>72.86568734497641</v>
       </c>
       <c r="AD6" t="n">
-        <v>46780.85716690775</v>
+        <v>58873.71260627713</v>
       </c>
       <c r="AE6" t="n">
-        <v>64007.63260150298</v>
+        <v>80553.61091276939</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.222977276671167e-06</v>
+        <v>1.531878298301538e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.861979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>57898.83398130562</v>
+        <v>72865.68734497641</v>
       </c>
     </row>
     <row r="7">
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>45.20615731496778</v>
+        <v>57.29901275433717</v>
       </c>
       <c r="AB7" t="n">
-        <v>61.85305879322536</v>
+        <v>78.39903710449174</v>
       </c>
       <c r="AC7" t="n">
-        <v>55.94988967332598</v>
+        <v>70.91674303699678</v>
       </c>
       <c r="AD7" t="n">
-        <v>45206.15731496779</v>
+        <v>57299.01275433717</v>
       </c>
       <c r="AE7" t="n">
-        <v>61853.05879322535</v>
+        <v>78399.03710449174</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.390403245210987e-06</v>
+        <v>1.563068486374402e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.826171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>55949.88967332598</v>
+        <v>70916.74303699678</v>
       </c>
     </row>
     <row r="8">
@@ -9029,28 +9029,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>44.86120932497992</v>
+        <v>56.9540647643493</v>
       </c>
       <c r="AB8" t="n">
-        <v>61.38108573529288</v>
+        <v>77.92706404655929</v>
       </c>
       <c r="AC8" t="n">
-        <v>55.52296106162409</v>
+        <v>70.4898144252949</v>
       </c>
       <c r="AD8" t="n">
-        <v>44861.20932497991</v>
+        <v>56954.0647643493</v>
       </c>
       <c r="AE8" t="n">
-        <v>61381.08573529289</v>
+        <v>77927.06404655929</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.435953649243178e-06</v>
+        <v>1.571554181162073e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.81640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>55522.9610616241</v>
+        <v>70489.8144252949</v>
       </c>
     </row>
   </sheetData>
@@ -9326,28 +9326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.25011721414037</v>
+        <v>75.2853493572287</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.90984488747543</v>
+        <v>103.008736345724</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.5198526736781</v>
+        <v>93.17772712258348</v>
       </c>
       <c r="AD2" t="n">
-        <v>64250.11721414037</v>
+        <v>75285.3493572287</v>
       </c>
       <c r="AE2" t="n">
-        <v>87909.84488747542</v>
+        <v>103008.736345724</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.881487504083748e-06</v>
+        <v>1.379392350015617e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.408854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>79519.85267367811</v>
+        <v>93177.72712258347</v>
       </c>
     </row>
     <row r="3">
@@ -9432,28 +9432,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.57090755093655</v>
+        <v>52.69139104004882</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.87914969001837</v>
+        <v>72.09468580108191</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.45068347410321</v>
+        <v>65.21407017376976</v>
       </c>
       <c r="AD3" t="n">
-        <v>41570.90755093655</v>
+        <v>52691.39104004882</v>
       </c>
       <c r="AE3" t="n">
-        <v>56879.14969001837</v>
+        <v>72094.68580108191</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.691253148652145e-06</v>
+        <v>1.742159394779889e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.905924479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>51450.68347410321</v>
+        <v>65214.07017376975</v>
       </c>
     </row>
     <row r="4">
@@ -9538,28 +9538,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.95505654818789</v>
+        <v>50.07554003729975</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.30002694487346</v>
+        <v>68.51556305592092</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.21314718041396</v>
+        <v>61.97653388007547</v>
       </c>
       <c r="AD4" t="n">
-        <v>38955.05654818789</v>
+        <v>50075.54003729975</v>
       </c>
       <c r="AE4" t="n">
-        <v>53300.02694487346</v>
+        <v>68515.56305592092</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.159705004104137e-06</v>
+        <v>1.836060445298055e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.809895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>48213.14718041396</v>
+        <v>61976.53388007547</v>
       </c>
     </row>
     <row r="5">
@@ -9644,28 +9644,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>39.01661347787715</v>
+        <v>50.13709696698902</v>
       </c>
       <c r="AB5" t="n">
-        <v>53.38425185177398</v>
+        <v>68.59978796282182</v>
       </c>
       <c r="AC5" t="n">
-        <v>48.28933378041054</v>
+        <v>62.05272048007217</v>
       </c>
       <c r="AD5" t="n">
-        <v>39016.61347787715</v>
+        <v>50137.09696698902</v>
       </c>
       <c r="AE5" t="n">
-        <v>53384.25185177398</v>
+        <v>68599.78796282182</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.16479576541094e-06</v>
+        <v>1.837080887055479e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.808268229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>48289.33378041054</v>
+        <v>62052.72048007217</v>
       </c>
     </row>
   </sheetData>
@@ -9941,28 +9941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.41106362971175</v>
+        <v>63.97106129056307</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.07937358797209</v>
+        <v>87.52802826175868</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.10478074029744</v>
+        <v>79.17447609083662</v>
       </c>
       <c r="AD2" t="n">
-        <v>53411.06362971175</v>
+        <v>63971.06129056307</v>
       </c>
       <c r="AE2" t="n">
-        <v>73079.37358797209</v>
+        <v>87528.02826175868</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.102173093387201e-06</v>
+        <v>1.695025280439394e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.130533854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>66104.78074029744</v>
+        <v>79174.47609083662</v>
       </c>
     </row>
     <row r="3">
@@ -10047,28 +10047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.4335164445576</v>
+        <v>47.07876545143208</v>
       </c>
       <c r="AB3" t="n">
-        <v>49.84994453260493</v>
+        <v>64.41524385917489</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.09233579134099</v>
+        <v>58.26754339263145</v>
       </c>
       <c r="AD3" t="n">
-        <v>36433.51644455759</v>
+        <v>47078.76545143207</v>
       </c>
       <c r="AE3" t="n">
-        <v>49849.94453260493</v>
+        <v>64415.24385917489</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.450166653312735e-06</v>
+        <v>1.977033963246744e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.826171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>45092.33579134099</v>
+        <v>58267.54339263144</v>
       </c>
     </row>
   </sheetData>
@@ -17773,28 +17773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.40707130804515</v>
+        <v>46.67245651094158</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.8137611301517</v>
+        <v>63.8593140417107</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.05960568203405</v>
+        <v>57.76467073669345</v>
       </c>
       <c r="AD2" t="n">
-        <v>36407.07130804515</v>
+        <v>46672.45651094158</v>
       </c>
       <c r="AE2" t="n">
-        <v>49813.7611301517</v>
+        <v>63859.31404171071</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.101363730179e-06</v>
+        <v>1.978505205841524e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.961263020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>45059.60568203405</v>
+        <v>57764.67073669346</v>
       </c>
     </row>
     <row r="3">
@@ -17879,28 +17879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.83321888060484</v>
+        <v>45.09860408350102</v>
       </c>
       <c r="AB3" t="n">
-        <v>47.66034680546955</v>
+        <v>61.70589971701889</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.11171019815718</v>
+        <v>55.81677525281356</v>
       </c>
       <c r="AD3" t="n">
-        <v>34833.21888060484</v>
+        <v>45098.60408350102</v>
       </c>
       <c r="AE3" t="n">
-        <v>47660.34680546955</v>
+        <v>61705.89971701889</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.544050937422176e-06</v>
+        <v>2.074739019812263e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.871744791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>43111.71019815718</v>
+        <v>55816.77525281355</v>
       </c>
     </row>
   </sheetData>
@@ -18176,28 +18176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.45090637711652</v>
+        <v>50.87803237213975</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.71495878992045</v>
+        <v>69.61356847191163</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.30216272306677</v>
+        <v>62.96974720022465</v>
       </c>
       <c r="AD2" t="n">
-        <v>41450.90637711652</v>
+        <v>50878.03237213975</v>
       </c>
       <c r="AE2" t="n">
-        <v>56714.95878992045</v>
+        <v>69613.56847191164</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.199315603988215e-06</v>
+        <v>2.188082021004445e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>51302.16272306677</v>
+        <v>62969.74720022465</v>
       </c>
     </row>
   </sheetData>
@@ -18473,28 +18473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.95870965261842</v>
+        <v>98.91988140035365</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.9300576084354</v>
+        <v>135.3465457690763</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.01111877706452</v>
+        <v>122.4292614009819</v>
       </c>
       <c r="AD2" t="n">
-        <v>75958.70965261842</v>
+        <v>98919.88140035364</v>
       </c>
       <c r="AE2" t="n">
-        <v>103930.0576084354</v>
+        <v>135346.5457690763</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.955866601956925e-06</v>
+        <v>1.155782486001709e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.6904296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>94011.11877706452</v>
+        <v>122429.2614009819</v>
       </c>
     </row>
     <row r="3">
@@ -18579,28 +18579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.05241979932249</v>
+        <v>70.49042475445533</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.79812597829887</v>
+        <v>96.44810896706885</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.08686623583088</v>
+        <v>87.24323681304674</v>
       </c>
       <c r="AD3" t="n">
-        <v>59052.41979932249</v>
+        <v>70490.42475445534</v>
       </c>
       <c r="AE3" t="n">
-        <v>80798.12597829886</v>
+        <v>96448.10896706885</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.896545555739417e-06</v>
+        <v>1.532386412120023e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.029622395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>73086.86623583088</v>
+        <v>87243.23681304674</v>
       </c>
     </row>
     <row r="4">
@@ -18685,28 +18685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.54031922786725</v>
+        <v>55.06357552902067</v>
       </c>
       <c r="AB4" t="n">
-        <v>59.57378563086591</v>
+        <v>75.34041327228515</v>
       </c>
       <c r="AC4" t="n">
-        <v>53.88814714260142</v>
+        <v>68.15002997052949</v>
       </c>
       <c r="AD4" t="n">
-        <v>43540.31922786725</v>
+        <v>55063.57552902067</v>
       </c>
       <c r="AE4" t="n">
-        <v>59573.78563086591</v>
+        <v>75340.41327228515</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.525318840354083e-06</v>
+        <v>1.654404784691467e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.8798828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>53888.14714260142</v>
+        <v>68150.02997052949</v>
       </c>
     </row>
     <row r="5">
@@ -18791,28 +18791,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>41.19528029360566</v>
+        <v>52.71853659476241</v>
       </c>
       <c r="AB5" t="n">
-        <v>56.36519990503569</v>
+        <v>72.13182754661835</v>
       </c>
       <c r="AC5" t="n">
-        <v>50.98578433526469</v>
+        <v>65.24766716324098</v>
       </c>
       <c r="AD5" t="n">
-        <v>41195.28029360566</v>
+        <v>52718.53659476241</v>
       </c>
       <c r="AE5" t="n">
-        <v>56365.1999050357</v>
+        <v>72131.82754661835</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.894507727436366e-06</v>
+        <v>1.726048775101857e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.8017578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>50985.78433526469</v>
+        <v>65247.66716324097</v>
       </c>
     </row>
     <row r="6">
@@ -18897,28 +18897,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>41.32673018420403</v>
+        <v>52.8499864853608</v>
       </c>
       <c r="AB6" t="n">
-        <v>56.54505544451141</v>
+        <v>72.31168308609487</v>
       </c>
       <c r="AC6" t="n">
-        <v>51.14847471448221</v>
+        <v>65.41035754245874</v>
       </c>
       <c r="AD6" t="n">
-        <v>41326.73018420403</v>
+        <v>52849.9864853608</v>
       </c>
       <c r="AE6" t="n">
-        <v>56545.05544451141</v>
+        <v>72311.68308609487</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.877569747020748e-06</v>
+        <v>1.722761827555688e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.805013020833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>51148.47471448221</v>
+        <v>65410.35754245875</v>
       </c>
     </row>
   </sheetData>
@@ -19194,28 +19194,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.2155123694404</v>
+        <v>120.2024325821157</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.0652381552697</v>
+        <v>164.4662712158411</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.934099636638</v>
+        <v>148.769841120908</v>
       </c>
       <c r="AD2" t="n">
-        <v>108215.5123694404</v>
+        <v>120202.4325821157</v>
       </c>
       <c r="AE2" t="n">
-        <v>148065.2381552697</v>
+        <v>164466.2712158411</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.898585876555931e-06</v>
+        <v>9.191668473055368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.152669270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>133934.099636638</v>
+        <v>148769.841120908</v>
       </c>
     </row>
     <row r="3">
@@ -19300,28 +19300,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.52208403719426</v>
+        <v>79.42366339529798</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.3866942437641</v>
+        <v>108.6709601821378</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.56943781070152</v>
+        <v>98.29955626303284</v>
       </c>
       <c r="AD3" t="n">
-        <v>67522.08403719426</v>
+        <v>79423.66339529798</v>
       </c>
       <c r="AE3" t="n">
-        <v>92386.6942437641</v>
+        <v>108670.9601821378</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.025662113416922e-06</v>
+        <v>1.318289779491151e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.198893229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>83569.43781070152</v>
+        <v>98299.55626303283</v>
       </c>
     </row>
     <row r="4">
@@ -19406,28 +19406,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.89931450574545</v>
+        <v>73.70229420485083</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.2744435091267</v>
+        <v>100.8427304467774</v>
       </c>
       <c r="AC4" t="n">
-        <v>61.75842644441379</v>
+        <v>91.21844178662327</v>
       </c>
       <c r="AD4" t="n">
-        <v>49899.31450574545</v>
+        <v>73702.29420485083</v>
       </c>
       <c r="AE4" t="n">
-        <v>68274.44350912669</v>
+        <v>100842.7304467774</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.752369667371036e-06</v>
+        <v>1.454648620208414e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.9921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>61758.4264444138</v>
+        <v>91218.44178662327</v>
       </c>
     </row>
     <row r="5">
@@ -19512,28 +19512,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.16541818687573</v>
+        <v>59.15224889100004</v>
       </c>
       <c r="AB5" t="n">
-        <v>64.53380595465772</v>
+        <v>80.93471654568071</v>
       </c>
       <c r="AC5" t="n">
-        <v>58.37479008812439</v>
+        <v>73.21042079116791</v>
       </c>
       <c r="AD5" t="n">
-        <v>47165.41818687573</v>
+        <v>59152.24889100004</v>
       </c>
       <c r="AE5" t="n">
-        <v>64533.80595465773</v>
+        <v>80934.71654568071</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.13811871501056e-06</v>
+        <v>1.527030271751333e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.897786458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>58374.79008812438</v>
+        <v>73210.42079116791</v>
       </c>
     </row>
     <row r="6">
@@ -19618,28 +19618,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>45.15022072716973</v>
+        <v>57.13705143129403</v>
       </c>
       <c r="AB6" t="n">
-        <v>61.776523886052</v>
+        <v>78.17743447707495</v>
       </c>
       <c r="AC6" t="n">
-        <v>55.88065915027581</v>
+        <v>70.71628985331934</v>
       </c>
       <c r="AD6" t="n">
-        <v>45150.22072716973</v>
+        <v>57137.05143129404</v>
       </c>
       <c r="AE6" t="n">
-        <v>61776.523886052</v>
+        <v>78177.43447707496</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.410183295473664e-06</v>
+        <v>1.57808025821469e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.8359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>55880.65915027581</v>
+        <v>70716.28985331934</v>
       </c>
     </row>
     <row r="7">
@@ -19724,28 +19724,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>44.22689856638458</v>
+        <v>56.21372927050888</v>
       </c>
       <c r="AB7" t="n">
-        <v>60.51319377156751</v>
+        <v>76.91410436259046</v>
       </c>
       <c r="AC7" t="n">
-        <v>54.73789948882236</v>
+        <v>69.5735301918659</v>
       </c>
       <c r="AD7" t="n">
-        <v>44226.89856638457</v>
+        <v>56213.72927050888</v>
       </c>
       <c r="AE7" t="n">
-        <v>60513.19377156751</v>
+        <v>76914.10436259047</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.504604034071774e-06</v>
+        <v>1.59579729223319e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>1.81640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>54737.89948882237</v>
+        <v>69573.5301918659</v>
       </c>
     </row>
     <row r="8">
@@ -19830,28 +19830,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>44.3610543259425</v>
+        <v>56.34788503006681</v>
       </c>
       <c r="AB8" t="n">
-        <v>60.69675160032898</v>
+        <v>77.09766219135193</v>
       </c>
       <c r="AC8" t="n">
-        <v>54.90393881603192</v>
+        <v>69.73956951907546</v>
       </c>
       <c r="AD8" t="n">
-        <v>44361.0543259425</v>
+        <v>56347.88503006681</v>
       </c>
       <c r="AE8" t="n">
-        <v>60696.75160032898</v>
+        <v>77097.66219135193</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.501282701558274e-06</v>
+        <v>1.595174079981283e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.81640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>54903.93881603192</v>
+        <v>69739.56951907546</v>
       </c>
     </row>
   </sheetData>
@@ -20127,28 +20127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.90927405491866</v>
+        <v>48.98421567213448</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.60562943468154</v>
+        <v>67.02236491366953</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.39414480102324</v>
+        <v>60.62584447280331</v>
       </c>
       <c r="AD2" t="n">
-        <v>39909.27405491866</v>
+        <v>48984.21567213448</v>
       </c>
       <c r="AE2" t="n">
-        <v>54605.62943468154</v>
+        <v>67022.36491366953</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.545677943524227e-06</v>
+        <v>2.137209200925719e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.322591145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>49394.14480102324</v>
+        <v>60625.84447280331</v>
       </c>
     </row>
   </sheetData>
@@ -20424,28 +20424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.83111306727673</v>
+        <v>67.55980869559895</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.75883611037864</v>
+        <v>92.43831078568782</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.3376419272339</v>
+        <v>83.61612814230833</v>
       </c>
       <c r="AD2" t="n">
-        <v>56831.11306727673</v>
+        <v>67559.80869559894</v>
       </c>
       <c r="AE2" t="n">
-        <v>77758.83611037864</v>
+        <v>92438.31078568782</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.674617695790792e-06</v>
+        <v>1.580421326833061e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.216796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>70337.6419272339</v>
+        <v>83616.12814230833</v>
       </c>
     </row>
     <row r="3">
@@ -20530,28 +20530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.81410901846297</v>
+        <v>48.62805599280853</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.73893219965885</v>
+        <v>66.5350515277599</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.80104112666775</v>
+        <v>60.18503959249612</v>
       </c>
       <c r="AD3" t="n">
-        <v>37814.10901846297</v>
+        <v>48628.05599280853</v>
       </c>
       <c r="AE3" t="n">
-        <v>51738.93219965886</v>
+        <v>66535.0515277599</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.255254712270305e-06</v>
+        <v>1.90591929296577e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.837565104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>46801.04112666775</v>
+        <v>60185.03959249612</v>
       </c>
     </row>
     <row r="4">
@@ -20636,28 +20636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>37.50575649531568</v>
+        <v>48.31970346966121</v>
       </c>
       <c r="AB4" t="n">
-        <v>51.31703067393755</v>
+        <v>66.1131500020367</v>
       </c>
       <c r="AC4" t="n">
-        <v>46.41940529041752</v>
+        <v>59.8034037562453</v>
       </c>
       <c r="AD4" t="n">
-        <v>37505.75649531568</v>
+        <v>48319.70346966121</v>
       </c>
       <c r="AE4" t="n">
-        <v>51317.03067393755</v>
+        <v>66113.15000203671</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.323082894212596e-06</v>
+        <v>1.919887038272576e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.824544270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>46419.40529041752</v>
+        <v>59803.4037562453</v>
       </c>
     </row>
   </sheetData>
@@ -20933,28 +20933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.49604913408876</v>
+        <v>78.67210511684159</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.35107214075633</v>
+        <v>107.6426449891431</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.53721543120885</v>
+        <v>97.36938202880776</v>
       </c>
       <c r="AD2" t="n">
-        <v>67496.04913408877</v>
+        <v>78672.10511684159</v>
       </c>
       <c r="AE2" t="n">
-        <v>92351.07214075633</v>
+        <v>107642.6449891431</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.598521492666563e-06</v>
+        <v>1.30728859425285e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.482096354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>83537.21543120885</v>
+        <v>97369.38202880777</v>
       </c>
     </row>
     <row r="3">
@@ -21039,28 +21039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.69946162580443</v>
+        <v>54.96076895457784</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.79153128059054</v>
+        <v>75.19974878162657</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.08511145312433</v>
+        <v>68.02279030143548</v>
       </c>
       <c r="AD3" t="n">
-        <v>43699.46162580443</v>
+        <v>54960.76895457784</v>
       </c>
       <c r="AE3" t="n">
-        <v>59791.53128059054</v>
+        <v>75199.74878162656</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.379740936422506e-06</v>
+        <v>1.660180960409642e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.954752604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>54085.11145312434</v>
+        <v>68022.79030143548</v>
       </c>
     </row>
     <row r="4">
@@ -21145,28 +21145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.10889806833488</v>
+        <v>51.37020539711143</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.8787638166262</v>
+        <v>70.28698131781897</v>
       </c>
       <c r="AC4" t="n">
-        <v>49.64121162090242</v>
+        <v>63.57889046925967</v>
       </c>
       <c r="AD4" t="n">
-        <v>40108.89806833488</v>
+        <v>51370.20539711144</v>
       </c>
       <c r="AE4" t="n">
-        <v>54878.7638166262</v>
+        <v>70286.98131781897</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.994645016232279e-06</v>
+        <v>1.782004779728598e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.8212890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>49641.21162090242</v>
+        <v>63578.89046925967</v>
       </c>
     </row>
     <row r="5">
@@ -21251,28 +21251,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>39.78413263857947</v>
+        <v>51.04543996735598</v>
       </c>
       <c r="AB5" t="n">
-        <v>54.43440542799745</v>
+        <v>69.84262292918822</v>
       </c>
       <c r="AC5" t="n">
-        <v>49.23926217322216</v>
+        <v>63.17694102157878</v>
       </c>
       <c r="AD5" t="n">
-        <v>39784.13263857947</v>
+        <v>51045.43996735598</v>
       </c>
       <c r="AE5" t="n">
-        <v>54434.40542799744</v>
+        <v>69842.62292918822</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.079671026286159e-06</v>
+        <v>1.798849997749302e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.803385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>49239.26217322216</v>
+        <v>63176.94102157878</v>
       </c>
     </row>
   </sheetData>
